--- a/Document/5주차/업무기능분할도_강찬휘.xlsx
+++ b/Document/5주차/업무기능분할도_강찬휘.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gangchanhwi/Desktop/inha/inha_3-1/gpteacher/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namdk\OneDrive\batang\학교\스타트업\main\Document\5주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D9E4D2-E8FE-B148-A5B5-FCCB2BEC8EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574044F0-DD57-410A-9311-37844C1E0385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{F987EEC4-94CB-CD49-89CA-B4A016F340BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F987EEC4-94CB-CD49-89CA-B4A016F340BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>프로세스ID</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>처리흐름</t>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-  </si>
-  <si>
-    <t>MAIN-002</t>
   </si>
   <si>
     <t>로그인</t>
@@ -69,125 +63,168 @@
 기능명</t>
   </si>
   <si>
-    <t>MAIN-003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN-004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN-005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일
 비밀번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAIN-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입려된 정보가 유효하면 user 테이블에 저장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 값이 user 테이블의 정보와 일치하면
-메인 화면으로 이동한다.</t>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름
+비밀번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 이메일 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인한 계정과 구글 계정을 연동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 정보가 유효하면 회원 정보를 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 이메일과 비밀번호를 입력한 후 로그인 버튼을 누른다.
 2. 이메일의 존재 여부를 검사한다.
 3. 비밀번호의 일치 여부를 검사한다.
-4. 계정 정보를 Data 핸들러에 저장하고 메인 화면으로 이동한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일
-인증코드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일
-비밀번호
-개인정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 이메일, 비밀번호, 개인정보를 입력한 후 회원가입 버튼을 누른다.
-2. 입력한 값의 유효성을 검사한다.
-3. 이메일의 중복 여부를 검사한다.
-4. 입력된 정보를 user 테이블에 저장한다.
-5. 로그인 화면으로 이동한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 인증코드 보내기 버튼을 누르면 로그인된 이메일로 인증 코드 발송.
-2. 발송된 인증코드를 입력 후 이메일 인증하기 버튼을 누른다.
-3. 인증코드의 유효성을 검사한다.
-4. 인증 여부를 user 테이블에 저장한다.
-5. 메인 페이지로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 계정의 이메일로 인증 코드를 보내 유효한 이메일인지 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 정보 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 혹은 비밀번호가 유효하면 유저 정보를 해당 값으로 대체한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름
-비밀번호</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+4. 로그인 상태로 전환 후 홈 화면으로 이동한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1. 이름 혹은 비밀번호를 입력한다.
 2. 입력한 값의 유효성을 검사한다.
-3. 변경된 정보를 user 테이블에 업데이트한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 이메일 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인한 계정과 구글 계정을 연동한다.</t>
+3. 변경된 정보로 MEMBER 테이블을 UPDATE한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 구글 이메일 연동 버튼을 누른다.
 2. 사용자의 구글 계정을 선택한다.
-3. 구글 API에 인가 코드를 사용해 액세스 토큰과 사용자 정보를 요청한다.
-4. 사용자의 구글 이메일을 user 테이블에 저장한다.</t>
+3. 구글 API의 인가 코드를 사용해 액세스 토큰과 사용자 정보를 요청한다.
+4. 사용자의 구글 이메일을 MEMBER 테이블에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 값이 MEMBER 테이블의 정보와 일치하면 
+메인 화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTC-007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 값이 유효하면 이메일 인증 화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호가 일치하면 회원 정보를 MEMBER 테이블에
+저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호</t>
+  </si>
+  <si>
+    <t>인증번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+이름
+비밀번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인증번호 발송 버튼을 누르면 3분 타이머를 시작하고 이메일로 인증번호를 발송한다.
+2. 인증번호가 일치하면 입력된 정보를 MEMBER 테이블에 저장한다.
+3. 로그인 화면으로 이동한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호가 일치하면 비밀번호 변경 화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 비밀번호가 유효하면 비밀번호를 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이메일, 이름, 비밀번호를 입력받는다.
+2. 입력한 값이 유효하면 다음 버튼을 활성화한다.
+3. 다음 버튼을 누르면 이메일 인증 화면으로 이동한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 비밀번호를 입력받는다.
+2. 입력한 값이 유효하면 MEMBER 테이블을 UPDATE 한다.
+3. 로그인 화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인증번호 발송 버튼을 누르면 3분 타이머를 시작하고 이메일로 인증번호를 발송한다.
+2. 인증번호가 일치하면 다음 버튼을 활성화한다.
+3. 다음 버튼을 누르면 비밀번호 변경 화면으로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,26 +255,25 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <name val="HY크리스탈M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="HY크리스탈M"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="구름 산스 400"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="구름 산스 700"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -481,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,32 +532,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,29 +559,50 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,159 +938,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C07038-21D3-5346-9787-096967C296DB}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="B1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="7.5703125" style="3"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="76.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="7.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1"/>
-    <row r="2" spans="1:7" ht="27">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="29" thickBot="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="126">
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="84">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="126">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63">
-      <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105">
-      <c r="A8" s="3"/>
-      <c r="B8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
